--- a/messages/Problems.xlsx
+++ b/messages/Problems.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>错误答案的问题</t>
   </si>
@@ -44,18 +44,24 @@
   <si>
     <t>书记作为党委书记的父关系</t>
   </si>
+  <si>
+    <t>交大有几个餐厅</t>
+  </si>
+  <si>
+    <t>餐厅不在entity 无知识库</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,12 +73,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,14 +124,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,24 +153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,25 +177,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,61 +193,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,11 +419,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,23 +429,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,40 +490,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,148 +519,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.25" customWidth="1"/>
     <col min="2" max="2" width="32.625" customWidth="1"/>
@@ -1062,8 +1061,19 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/messages/Problems.xlsx
+++ b/messages/Problems.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\数据\bot final\jiaoxiaotongfinal\messages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\final\jiaoxiaotongfinal\messages\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,6 @@
   </si>
   <si>
     <t>你们学校计算机系有多少人？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的计算机为电院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,6 +339,10 @@
   </si>
   <si>
     <t>网络中心的官网是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机院为电院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -813,7 +813,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>36</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -969,15 +969,15 @@
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1004,12 +1004,12 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1033,15 +1033,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1227,7 +1227,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>37</v>
@@ -1270,12 +1270,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
